--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3544.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3544.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.819600163993102</v>
+        <v>0.5777637958526611</v>
       </c>
       <c r="B1">
-        <v>1.966921357105886</v>
+        <v>0.5673599243164062</v>
       </c>
       <c r="C1">
-        <v>2.030911237090983</v>
+        <v>0.5918037891387939</v>
       </c>
       <c r="D1">
-        <v>2.666402311004829</v>
+        <v>0.7931169867515564</v>
       </c>
       <c r="E1">
-        <v>3.078799236168218</v>
+        <v>0.8122955560684204</v>
       </c>
     </row>
   </sheetData>
